--- a/templates/dataplant/PRIDE/DataProcessing_PRIDE_minimal.xlsx
+++ b/templates/dataplant/PRIDE/DataProcessing_PRIDE_minimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\nfdi4plants\SWATE_templates\templates\dataplant\PRIDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\PRIDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50D65E7-914C-4311-A061-7A07E71B017E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099DC6C-B438-4F56-AACE-90E556213A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Processing" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Source Name</t>
   </si>
@@ -285,13 +285,25 @@
   </si>
   <si>
     <t>Data-Steward</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C20085</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000098</t>
+  </si>
+  <si>
+    <t>DPBO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,12 +326,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -849,18 +855,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="39.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -898,18 +906,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C04B02-AA92-4054-B321-AA689C8B2ADA}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -917,7 +927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -925,7 +935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -933,7 +943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -941,7 +951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -949,7 +959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -957,13 +967,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -971,25 +981,29 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1012,35 +1026,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1056,13 +1078,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1070,19 +1092,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1090,7 +1112,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1098,7 +1120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1106,7 +1128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1114,13 +1136,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>

--- a/templates/dataplant/PRIDE/DataProcessing_PRIDE_minimal.xlsx
+++ b/templates/dataplant/PRIDE/DataProcessing_PRIDE_minimal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\PRIDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099DC6C-B438-4F56-AACE-90E556213A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D58353-2AAB-47A8-A95F-3FF3CA89AAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3912" yWindow="1560" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Processing" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Source Name</t>
   </si>
@@ -904,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C04B02-AA92-4054-B321-AA689C8B2ADA}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +919,7 @@
     <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -927,7 +927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -935,7 +935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -943,7 +943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -951,7 +951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -959,7 +959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -967,13 +967,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -981,7 +981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -989,7 +989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -997,72 +997,63 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>

--- a/templates/dataplant/PRIDE/DataProcessing_PRIDE_minimal.xlsx
+++ b/templates/dataplant/PRIDE/DataProcessing_PRIDE_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\PRIDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D58353-2AAB-47A8-A95F-3FF3CA89AAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D07945-9582-4B09-81C0-9148313D8642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3912" yWindow="1560" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Processing" sheetId="1" r:id="rId1"/>
@@ -254,18 +254,6 @@
     <t>Proteomics</t>
   </si>
   <si>
-    <t>Mass spectrometry</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Processing</t>
-  </si>
-  <si>
     <t>Maus</t>
   </si>
   <si>
@@ -297,6 +285,18 @@
   </si>
   <si>
     <t>DPBO</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>NCIT:C17156</t>
+  </si>
+  <si>
+    <t>data processing</t>
+  </si>
+  <si>
+    <t>NCIT:C47925</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1011,27 +1011,27 @@
         <v>40</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
@@ -1040,7 +1040,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1058,7 +1058,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1066,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1080,7 +1080,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1100,7 +1100,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1108,7 +1108,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
